--- a/downloads/SIBP Exec Assessment 250203.xlsx
+++ b/downloads/SIBP Exec Assessment 250203.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39cad19df2e8f612/SIBP/1 Practice Development/2 Exec Assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{F706B2E2-674F-6245-8DE2-92E8046F30C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1AB5C28-76B2-5141-A447-4D3D8B266319}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{F706B2E2-674F-6245-8DE2-92E8046F30C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93C9242A-3B42-3B4A-ACD9-6797B4F827AF}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z5g3pkipscaoOdEwqiz2avhYcn2viAwWA5KHG/cNtldJJgUvw9+OkaV3xXFEAoIhuXbC4AbWZHa4OGIk3+j1KA==" workbookSaltValue="T+/Q59o/vN0yyCeE4qjwNQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="-15220" windowWidth="20460" windowHeight="15220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="-14380" windowWidth="24340" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS" sheetId="4" r:id="rId1"/>
@@ -628,9 +628,6 @@
   </si>
   <si>
     <t>For follow-up and to receive any updates from us, please provide the following details, and email this spreadsheet to the above contact.</t>
-  </si>
-  <si>
-    <t>If you have any questions or need further assistance while completing the questionnaire, please reach out to belliott@tompkinsventures.com .</t>
   </si>
   <si>
     <t>Once the Questionnaire has been completed, the summary of recommendations are presented below…</t>
@@ -750,12 +747,15 @@
   <si>
     <t>Are financial, operational, and supply chain plans integrated into a unified financial strategy?</t>
   </si>
+  <si>
+    <t>If you have any questions or need further assistance while completing the questionnaire, please reach out to info@sustainable-ibp.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -929,6 +929,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1003,7 +1019,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1178,12 +1194,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1330,12 +1373,6 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1347,6 +1384,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1397,8 +1440,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2094,10 +2144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B6EA3A-E482-B148-B299-652B50AB0846}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2108,15 +2158,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="14" customFormat="1" ht="218" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" s="14" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="57"/>
+      <c r="A2" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="55"/>
     </row>
     <row r="3" spans="1:2" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
@@ -2160,7 +2210,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="58" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>185</v>
       </c>
@@ -2305,10 +2355,10 @@
       <c r="B29" s="51"/>
     </row>
     <row r="30" spans="1:2" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="B30" s="53"/>
+      <c r="A30" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="76"/>
     </row>
     <row r="31" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="50" t="s">
@@ -2317,51 +2367,55 @@
       <c r="B31" s="51"/>
     </row>
     <row r="32" spans="1:2" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="B32" s="55"/>
+      <c r="B32" s="53"/>
     </row>
     <row r="33" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B33" s="29"/>
     </row>
     <row r="34" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B34" s="30"/>
     </row>
     <row r="35" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B35" s="30"/>
     </row>
     <row r="36" spans="1:2" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B36" s="31"/>
     </row>
-    <row r="37" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="50" t="s">
+    <row r="37" spans="1:2" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="56"/>
+      <c r="B37" s="57"/>
+    </row>
+    <row r="38" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="51"/>
-    </row>
-    <row r="38" spans="1:2" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="43" t="s">
+      <c r="B38" s="51"/>
+    </row>
+    <row r="39" spans="1:2" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="44"/>
+      <c r="B39" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oXyjFpO5zuAXgq0WU87wlR9DiCM6D3CETnt1e47KZ01sk46dxsXoHsav1l0/HR0ZMwu63qJbzbLyx7B2HLvKKg==" saltValue="TTmRWWkOA5s7gZlPvacOcg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="15">
-    <mergeCell ref="A38:B38"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zjjr3p+UK6SmXXaSNDTCCJnaNk0lCoB4OeSZMU8X3+NfUicOIrPqtbjpw8thSwlpATnwcTrHZywbdiRKzaYtTA==" saltValue="lNWdzoS+4mV/QgtYPqoxZg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="16">
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A7:B7"/>
@@ -2374,9 +2428,13 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A30:B30" r:id="rId1" display="If you have any questions or need further assistance while completing the questionnaire, please reach out to info@sustainable-ibp.com" xr:uid="{D4DA46BE-CB0E-9140-907C-B536E03B9D13}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -2389,14 +2447,14 @@
   </sheetPr>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="200.83203125" customWidth="1"/>
+    <col min="2" max="2" width="170.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2433,7 +2491,7 @@
       </c>
       <c r="C4" s="28"/>
     </row>
-    <row r="5" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="58" t="str">
         <f>KB!L5</f>
@@ -2451,7 +2509,7 @@
       </c>
       <c r="C6" s="28"/>
     </row>
-    <row r="7" spans="1:4" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="60" t="str">
         <f>KB!L7</f>
@@ -2478,7 +2536,7 @@
       <c r="C9" s="28"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="58" t="str">
         <f>KB!L10</f>
@@ -2497,7 +2555,7 @@
       <c r="C11" s="28"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="60" t="str">
         <f>KB!L12</f>
@@ -2524,7 +2582,7 @@
       <c r="C14" s="28"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="58" t="str">
         <f>KB!L15</f>
@@ -2543,7 +2601,7 @@
       <c r="C16" s="28"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="60" t="str">
         <f>KB!L17</f>
@@ -2568,7 +2626,7 @@
       </c>
       <c r="C19" s="28"/>
     </row>
-    <row r="20" spans="1:3" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="58" t="str">
         <f>KB!L20</f>
@@ -2586,7 +2644,7 @@
       </c>
       <c r="C21" s="28"/>
     </row>
-    <row r="22" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="60" t="str">
         <f>KB!L22</f>
@@ -2611,7 +2669,7 @@
       </c>
       <c r="C24" s="28"/>
     </row>
-    <row r="25" spans="1:3" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="58" t="str">
         <f>KB!L25</f>
@@ -2629,7 +2687,7 @@
       </c>
       <c r="C26" s="28"/>
     </row>
-    <row r="27" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="60" t="str">
         <f>KB!L27</f>
@@ -2654,7 +2712,7 @@
       </c>
       <c r="C29" s="28"/>
     </row>
-    <row r="30" spans="1:3" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="58" t="str">
         <f>KB!L30</f>
@@ -2672,7 +2730,7 @@
       </c>
       <c r="C31" s="28"/>
     </row>
-    <row r="32" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="60" t="str">
         <f>KB!L32</f>
@@ -2697,7 +2755,7 @@
       </c>
       <c r="C34" s="28"/>
     </row>
-    <row r="35" spans="1:3" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="58" t="str">
         <f>KB!L35</f>
@@ -2715,7 +2773,7 @@
       </c>
       <c r="C36" s="28"/>
     </row>
-    <row r="37" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="60" t="str">
         <f>KB!L37</f>
@@ -2725,7 +2783,7 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
@@ -2740,7 +2798,7 @@
       </c>
       <c r="C39" s="28"/>
     </row>
-    <row r="40" spans="1:3" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
       <c r="B40" s="58" t="str">
         <f>KB!L40</f>
@@ -2758,7 +2816,7 @@
       </c>
       <c r="C41" s="28"/>
     </row>
-    <row r="42" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="60" t="str">
         <f>KB!L42</f>
@@ -2767,8 +2825,19 @@
       <c r="C42" s="61"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SBN1JzXdFLJDN5kQ6su7Nd1MoKK2zQMI0HX07zxzhlQoQ/8Xzivw6OKnvB3NAWWmllcVJGqcFwZdBZm6c3nQYw==" saltValue="W0yE+3/tit/kssJe8v7H5w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dfIBo2H/1zvX+5P3DNGbEQ3J2Oas0VWK62eYdjzj0wWnS0p6YRcyO82e/Dz6hS8lVhkQXN+RN8eikXZxUKdaWQ==" saltValue="pGswg4Zbm9VRy5IyRV5YvA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B12:C12"/>
@@ -2776,17 +2845,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="expression" dxfId="47" priority="60" stopIfTrue="1">
@@ -2990,7 +3048,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -4342,7 +4400,7 @@
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -4367,31 +4425,31 @@
         <v>8.1</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="E40" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="F40" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="G40" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="I40" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="J40" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="K40" s="7">
         <f>_xlfn.SWITCH(QUESTIONNAIRE!C39,"",0,"NO",1,"UNSURE",2,"YES",3,0)</f>
@@ -4444,31 +4502,31 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C42" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="E42" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="F42" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="G42" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="H42" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="I42" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="J42" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="K42" s="7">
         <f>_xlfn.SWITCH(QUESTIONNAIRE!C41,"",0,"NO",1,"UNSURE",2,"YES",3,0)</f>
@@ -4737,7 +4795,7 @@
     <row r="57" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="10"/>
       <c r="L57" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M57" s="7">
         <f>K39</f>

--- a/downloads/SIBP Exec Assessment 250203.xlsx
+++ b/downloads/SIBP Exec Assessment 250203.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39cad19df2e8f612/SIBP/1 Practice Development/2 Exec Assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{F706B2E2-674F-6245-8DE2-92E8046F30C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93C9242A-3B42-3B4A-ACD9-6797B4F827AF}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{F706B2E2-674F-6245-8DE2-92E8046F30C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1AB5C28-76B2-5141-A447-4D3D8B266319}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z5g3pkipscaoOdEwqiz2avhYcn2viAwWA5KHG/cNtldJJgUvw9+OkaV3xXFEAoIhuXbC4AbWZHa4OGIk3+j1KA==" workbookSaltValue="T+/Q59o/vN0yyCeE4qjwNQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="-14380" windowWidth="24340" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6720" yWindow="-15220" windowWidth="20460" windowHeight="15220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS" sheetId="4" r:id="rId1"/>
@@ -628,6 +628,9 @@
   </si>
   <si>
     <t>For follow-up and to receive any updates from us, please provide the following details, and email this spreadsheet to the above contact.</t>
+  </si>
+  <si>
+    <t>If you have any questions or need further assistance while completing the questionnaire, please reach out to belliott@tompkinsventures.com .</t>
   </si>
   <si>
     <t>Once the Questionnaire has been completed, the summary of recommendations are presented below…</t>
@@ -747,15 +750,12 @@
   <si>
     <t>Are financial, operational, and supply chain plans integrated into a unified financial strategy?</t>
   </si>
-  <si>
-    <t>If you have any questions or need further assistance while completing the questionnaire, please reach out to info@sustainable-ibp.com</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -929,22 +929,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1019,7 +1003,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1194,39 +1178,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1373,6 +1330,12 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1384,12 +1347,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1440,15 +1397,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2144,10 +2094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B6EA3A-E482-B148-B299-652B50AB0846}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2158,15 +2108,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="14" customFormat="1" ht="218" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" s="14" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" s="55"/>
+      <c r="A2" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
@@ -2210,7 +2160,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="58" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>185</v>
       </c>
@@ -2355,10 +2305,10 @@
       <c r="B29" s="51"/>
     </row>
     <row r="30" spans="1:2" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="B30" s="76"/>
+      <c r="A30" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="53"/>
     </row>
     <row r="31" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="50" t="s">
@@ -2367,55 +2317,51 @@
       <c r="B31" s="51"/>
     </row>
     <row r="32" spans="1:2" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="55"/>
     </row>
     <row r="33" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B33" s="29"/>
     </row>
     <row r="34" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B34" s="30"/>
     </row>
     <row r="35" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B35" s="30"/>
     </row>
     <row r="36" spans="1:2" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B36" s="31"/>
     </row>
-    <row r="37" spans="1:2" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57"/>
-    </row>
-    <row r="38" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="50" t="s">
+    <row r="37" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="51"/>
-    </row>
-    <row r="39" spans="1:2" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="43" t="s">
+      <c r="B37" s="51"/>
+    </row>
+    <row r="38" spans="1:2" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="44"/>
+      <c r="B38" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zjjr3p+UK6SmXXaSNDTCCJnaNk0lCoB4OeSZMU8X3+NfUicOIrPqtbjpw8thSwlpATnwcTrHZywbdiRKzaYtTA==" saltValue="lNWdzoS+4mV/QgtYPqoxZg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="16">
-    <mergeCell ref="A39:B39"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oXyjFpO5zuAXgq0WU87wlR9DiCM6D3CETnt1e47KZ01sk46dxsXoHsav1l0/HR0ZMwu63qJbzbLyx7B2HLvKKg==" saltValue="TTmRWWkOA5s7gZlPvacOcg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="15">
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A7:B7"/>
@@ -2428,13 +2374,9 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A37:B37"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A30:B30" r:id="rId1" display="If you have any questions or need further assistance while completing the questionnaire, please reach out to info@sustainable-ibp.com" xr:uid="{D4DA46BE-CB0E-9140-907C-B536E03B9D13}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -2447,14 +2389,14 @@
   </sheetPr>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="170.6640625" customWidth="1"/>
+    <col min="2" max="2" width="200.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2491,7 +2433,7 @@
       </c>
       <c r="C4" s="28"/>
     </row>
-    <row r="5" spans="1:4" ht="130" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="58" t="str">
         <f>KB!L5</f>
@@ -2509,7 +2451,7 @@
       </c>
       <c r="C6" s="28"/>
     </row>
-    <row r="7" spans="1:4" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="60" t="str">
         <f>KB!L7</f>
@@ -2536,7 +2478,7 @@
       <c r="C9" s="28"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="130" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="58" t="str">
         <f>KB!L10</f>
@@ -2555,7 +2497,7 @@
       <c r="C11" s="28"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="60" t="str">
         <f>KB!L12</f>
@@ -2582,7 +2524,7 @@
       <c r="C14" s="28"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="130" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="58" t="str">
         <f>KB!L15</f>
@@ -2601,7 +2543,7 @@
       <c r="C16" s="28"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:3" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="60" t="str">
         <f>KB!L17</f>
@@ -2626,7 +2568,7 @@
       </c>
       <c r="C19" s="28"/>
     </row>
-    <row r="20" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="58" t="str">
         <f>KB!L20</f>
@@ -2644,7 +2586,7 @@
       </c>
       <c r="C21" s="28"/>
     </row>
-    <row r="22" spans="1:3" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="60" t="str">
         <f>KB!L22</f>
@@ -2669,7 +2611,7 @@
       </c>
       <c r="C24" s="28"/>
     </row>
-    <row r="25" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="58" t="str">
         <f>KB!L25</f>
@@ -2687,7 +2629,7 @@
       </c>
       <c r="C26" s="28"/>
     </row>
-    <row r="27" spans="1:3" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="60" t="str">
         <f>KB!L27</f>
@@ -2712,7 +2654,7 @@
       </c>
       <c r="C29" s="28"/>
     </row>
-    <row r="30" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="58" t="str">
         <f>KB!L30</f>
@@ -2730,7 +2672,7 @@
       </c>
       <c r="C31" s="28"/>
     </row>
-    <row r="32" spans="1:3" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="60" t="str">
         <f>KB!L32</f>
@@ -2755,7 +2697,7 @@
       </c>
       <c r="C34" s="28"/>
     </row>
-    <row r="35" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="58" t="str">
         <f>KB!L35</f>
@@ -2773,7 +2715,7 @@
       </c>
       <c r="C36" s="28"/>
     </row>
-    <row r="37" spans="1:3" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="60" t="str">
         <f>KB!L37</f>
@@ -2783,7 +2725,7 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
@@ -2798,7 +2740,7 @@
       </c>
       <c r="C39" s="28"/>
     </row>
-    <row r="40" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
       <c r="B40" s="58" t="str">
         <f>KB!L40</f>
@@ -2816,7 +2758,7 @@
       </c>
       <c r="C41" s="28"/>
     </row>
-    <row r="42" spans="1:3" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="60" t="str">
         <f>KB!L42</f>
@@ -2825,19 +2767,8 @@
       <c r="C42" s="61"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dfIBo2H/1zvX+5P3DNGbEQ3J2Oas0VWK62eYdjzj0wWnS0p6YRcyO82e/Dz6hS8lVhkQXN+RN8eikXZxUKdaWQ==" saltValue="pGswg4Zbm9VRy5IyRV5YvA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SBN1JzXdFLJDN5kQ6su7Nd1MoKK2zQMI0HX07zxzhlQoQ/8Xzivw6OKnvB3NAWWmllcVJGqcFwZdBZm6c3nQYw==" saltValue="W0yE+3/tit/kssJe8v7H5w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B12:C12"/>
@@ -2845,6 +2776,17 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="expression" dxfId="47" priority="60" stopIfTrue="1">
@@ -3048,7 +2990,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -4400,7 +4342,7 @@
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -4425,31 +4367,31 @@
         <v>8.1</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K40" s="7">
         <f>_xlfn.SWITCH(QUESTIONNAIRE!C39,"",0,"NO",1,"UNSURE",2,"YES",3,0)</f>
@@ -4502,31 +4444,31 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K42" s="7">
         <f>_xlfn.SWITCH(QUESTIONNAIRE!C41,"",0,"NO",1,"UNSURE",2,"YES",3,0)</f>
@@ -4795,7 +4737,7 @@
     <row r="57" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="10"/>
       <c r="L57" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M57" s="7">
         <f>K39</f>

--- a/downloads/SIBP Exec Assessment 250203.xlsx
+++ b/downloads/SIBP Exec Assessment 250203.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39cad19df2e8f612/SIBP/1 Practice Development/2 Exec Assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{F706B2E2-674F-6245-8DE2-92E8046F30C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1AB5C28-76B2-5141-A447-4D3D8B266319}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z5g3pkipscaoOdEwqiz2avhYcn2viAwWA5KHG/cNtldJJgUvw9+OkaV3xXFEAoIhuXbC4AbWZHa4OGIk3+j1KA==" workbookSaltValue="T+/Q59o/vN0yyCeE4qjwNQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="13_ncr:1_{F706B2E2-674F-6245-8DE2-92E8046F30C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59C45454-7D37-A649-9CAE-D38DD5FEA590}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="rhcq7+dfaUR32rlPfizDyG9PVHWBFXOBnjOhGxm13NjhWedSUVqnFn8ukicZPRTX4P14IXw6fYAnTFjn9CZ+uA==" workbookSaltValue="3U9dq2bkM1KU3v6FpsotKA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="-15220" windowWidth="20460" windowHeight="15220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS" sheetId="4" r:id="rId1"/>
@@ -621,16 +621,10 @@
     <t>Based on your responses, the following are key risks of which to be aware:</t>
   </si>
   <si>
-    <t>We would be very pleased to support your way forward.  Please reach out to belliott@tompkinsventures.com.</t>
-  </si>
-  <si>
     <t>Prepare Your Team: If it will be helpful, brief your team on the purpose of the assessment and the importance of providing accurate and honest feedback.</t>
   </si>
   <si>
     <t>For follow-up and to receive any updates from us, please provide the following details, and email this spreadsheet to the above contact.</t>
-  </si>
-  <si>
-    <t>If you have any questions or need further assistance while completing the questionnaire, please reach out to belliott@tompkinsventures.com .</t>
   </si>
   <si>
     <t>Once the Questionnaire has been completed, the summary of recommendations are presented below…</t>
@@ -750,12 +744,18 @@
   <si>
     <t>Are financial, operational, and supply chain plans integrated into a unified financial strategy?</t>
   </si>
+  <si>
+    <t>If you have any questions or need further assistance while completing the questionnaire, please reach out to info@sustainable-ibp.com</t>
+  </si>
+  <si>
+    <t>We would be very pleased to support your way forward.  Please reach out to info@sustainable-ibp.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -929,6 +929,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1003,7 +1019,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1178,12 +1194,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1330,10 +1373,10 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1347,6 +1390,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1398,7 +1447,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2094,10 +2144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B6EA3A-E482-B148-B299-652B50AB0846}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2108,13 +2158,13 @@
   <sheetData>
     <row r="1" spans="1:2" s="14" customFormat="1" ht="218" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" s="14" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="56" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B2" s="57"/>
     </row>
@@ -2160,7 +2210,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="58" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>185</v>
       </c>
@@ -2291,7 +2341,7 @@
         <v>152</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2306,7 +2356,7 @@
     </row>
     <row r="30" spans="1:2" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="B30" s="53"/>
     </row>
@@ -2318,50 +2368,54 @@
     </row>
     <row r="32" spans="1:2" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B32" s="55"/>
     </row>
     <row r="33" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="41" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B33" s="29"/>
     </row>
     <row r="34" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B34" s="30"/>
     </row>
     <row r="35" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B35" s="30"/>
     </row>
     <row r="36" spans="1:2" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B36" s="31"/>
     </row>
-    <row r="37" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="50" t="s">
+    <row r="37" spans="1:2" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="58"/>
+      <c r="B37" s="59"/>
+    </row>
+    <row r="38" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="51"/>
-    </row>
-    <row r="38" spans="1:2" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="43" t="s">
+      <c r="B38" s="51"/>
+    </row>
+    <row r="39" spans="1:2" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="44"/>
+      <c r="B39" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oXyjFpO5zuAXgq0WU87wlR9DiCM6D3CETnt1e47KZ01sk46dxsXoHsav1l0/HR0ZMwu63qJbzbLyx7B2HLvKKg==" saltValue="TTmRWWkOA5s7gZlPvacOcg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="15">
-    <mergeCell ref="A38:B38"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zjjr3p+UK6SmXXaSNDTCCJnaNk0lCoB4OeSZMU8X3+NfUicOIrPqtbjpw8thSwlpATnwcTrHZywbdiRKzaYtTA==" saltValue="lNWdzoS+4mV/QgtYPqoxZg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="16">
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A7:B7"/>
@@ -2374,9 +2428,13 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A30:B30" r:id="rId1" display="If you have any questions or need further assistance while completing the questionnaire, please reach out to info@sustainable-ibp.com" xr:uid="{D4DA46BE-CB0E-9140-907C-B536E03B9D13}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -2389,29 +2447,29 @@
   </sheetPr>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="200.83203125" customWidth="1"/>
+    <col min="2" max="2" width="170.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="67"/>
       <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
@@ -2433,13 +2491,13 @@
       </c>
       <c r="C4" s="28"/>
     </row>
-    <row r="5" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
-      <c r="B5" s="58" t="str">
+      <c r="B5" s="60" t="str">
         <f>KB!L5</f>
         <v>Not Evaluated</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="61"/>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="23">
@@ -2451,13 +2509,13 @@
       </c>
       <c r="C6" s="28"/>
     </row>
-    <row r="7" spans="1:4" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="60" t="str">
+      <c r="B7" s="62" t="str">
         <f>KB!L7</f>
         <v>Not Evaluated</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="63"/>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
@@ -2478,13 +2536,13 @@
       <c r="C9" s="28"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
-      <c r="B10" s="58" t="str">
+      <c r="B10" s="60" t="str">
         <f>KB!L10</f>
         <v>Not Evaluated</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="61"/>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
@@ -2497,13 +2555,13 @@
       <c r="C11" s="28"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
-      <c r="B12" s="60" t="str">
+      <c r="B12" s="62" t="str">
         <f>KB!L12</f>
         <v>Not Evaluated</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="63"/>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
@@ -2524,13 +2582,13 @@
       <c r="C14" s="28"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
-      <c r="B15" s="58" t="str">
+      <c r="B15" s="60" t="str">
         <f>KB!L15</f>
         <v>Not Evaluated</v>
       </c>
-      <c r="C15" s="59"/>
+      <c r="C15" s="61"/>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21">
@@ -2543,13 +2601,13 @@
       <c r="C16" s="28"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
-      <c r="B17" s="60" t="str">
+      <c r="B17" s="62" t="str">
         <f>KB!L17</f>
         <v>Not Evaluated</v>
       </c>
-      <c r="C17" s="61"/>
+      <c r="C17" s="63"/>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19" t="s">
@@ -2568,13 +2626,13 @@
       </c>
       <c r="C19" s="28"/>
     </row>
-    <row r="20" spans="1:3" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
-      <c r="B20" s="58" t="str">
+      <c r="B20" s="60" t="str">
         <f>KB!L20</f>
         <v>Not Evaluated</v>
       </c>
-      <c r="C20" s="59"/>
+      <c r="C20" s="61"/>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="21">
@@ -2586,13 +2644,13 @@
       </c>
       <c r="C21" s="28"/>
     </row>
-    <row r="22" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
-      <c r="B22" s="60" t="str">
+      <c r="B22" s="62" t="str">
         <f>KB!L22</f>
         <v>Not Evaluated</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="63"/>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19" t="s">
@@ -2611,13 +2669,13 @@
       </c>
       <c r="C24" s="28"/>
     </row>
-    <row r="25" spans="1:3" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
-      <c r="B25" s="58" t="str">
+      <c r="B25" s="60" t="str">
         <f>KB!L25</f>
         <v>Not Evaluated</v>
       </c>
-      <c r="C25" s="59"/>
+      <c r="C25" s="61"/>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="21">
@@ -2629,13 +2687,13 @@
       </c>
       <c r="C26" s="28"/>
     </row>
-    <row r="27" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
-      <c r="B27" s="60" t="str">
+      <c r="B27" s="62" t="str">
         <f>KB!L27</f>
         <v>Not Evaluated</v>
       </c>
-      <c r="C27" s="61"/>
+      <c r="C27" s="63"/>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19" t="s">
@@ -2654,13 +2712,13 @@
       </c>
       <c r="C29" s="28"/>
     </row>
-    <row r="30" spans="1:3" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
-      <c r="B30" s="58" t="str">
+      <c r="B30" s="60" t="str">
         <f>KB!L30</f>
         <v>Not Evaluated</v>
       </c>
-      <c r="C30" s="59"/>
+      <c r="C30" s="61"/>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="21">
@@ -2672,13 +2730,13 @@
       </c>
       <c r="C31" s="28"/>
     </row>
-    <row r="32" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
-      <c r="B32" s="60" t="str">
+      <c r="B32" s="62" t="str">
         <f>KB!L32</f>
         <v>Not Evaluated</v>
       </c>
-      <c r="C32" s="61"/>
+      <c r="C32" s="63"/>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19" t="s">
@@ -2697,13 +2755,13 @@
       </c>
       <c r="C34" s="28"/>
     </row>
-    <row r="35" spans="1:3" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
-      <c r="B35" s="58" t="str">
+      <c r="B35" s="60" t="str">
         <f>KB!L35</f>
         <v>Not Evaluated</v>
       </c>
-      <c r="C35" s="59"/>
+      <c r="C35" s="61"/>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="21">
@@ -2715,17 +2773,17 @@
       </c>
       <c r="C36" s="28"/>
     </row>
-    <row r="37" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
-      <c r="B37" s="60" t="str">
+      <c r="B37" s="62" t="str">
         <f>KB!L37</f>
         <v>Not Evaluated</v>
       </c>
-      <c r="C37" s="61"/>
+      <c r="C37" s="63"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
@@ -2740,13 +2798,13 @@
       </c>
       <c r="C39" s="28"/>
     </row>
-    <row r="40" spans="1:3" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
-      <c r="B40" s="58" t="str">
+      <c r="B40" s="60" t="str">
         <f>KB!L40</f>
         <v>Not Evaluated</v>
       </c>
-      <c r="C40" s="59"/>
+      <c r="C40" s="61"/>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="21">
@@ -2758,16 +2816,16 @@
       </c>
       <c r="C41" s="28"/>
     </row>
-    <row r="42" spans="1:3" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="130" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
-      <c r="B42" s="60" t="str">
+      <c r="B42" s="62" t="str">
         <f>KB!L42</f>
         <v>Not Evaluated</v>
       </c>
-      <c r="C42" s="61"/>
+      <c r="C42" s="63"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SBN1JzXdFLJDN5kQ6su7Nd1MoKK2zQMI0HX07zxzhlQoQ/8Xzivw6OKnvB3NAWWmllcVJGqcFwZdBZm6c3nQYw==" saltValue="W0yE+3/tit/kssJe8v7H5w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dfIBo2H/1zvX+5P3DNGbEQ3J2Oas0VWK62eYdjzj0wWnS0p6YRcyO82e/Dz6hS8lVhkQXN+RN8eikXZxUKdaWQ==" saltValue="pGswg4Zbm9VRy5IyRV5YvA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B27:C27"/>
@@ -2990,104 +3048,104 @@
   <sheetData>
     <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
     </row>
     <row r="5" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="69" t="str">
+      <c r="B5" s="71" t="str">
         <f>IF(KB!M58=0,"Please complete the assessment",IF(KB!M58&lt;18,KB!B49&amp;CHAR(10)&amp;KB!B60&amp;CHAR(10)&amp;KB!B55,""))</f>
         <v>Please complete the assessment</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
     </row>
     <row r="6" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
     </row>
     <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
     </row>
     <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="69"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
     </row>
     <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="69"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
     </row>
     <row r="10" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
     </row>
     <row r="11" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="73"/>
     </row>
     <row r="12" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
     </row>
     <row r="13" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
     </row>
     <row r="14" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
     </row>
     <row r="15" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
     </row>
     <row r="16" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
     </row>
     <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
     </row>
     <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="69"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
     </row>
     <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
     </row>
     <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="69"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
     </row>
     <row r="21" spans="2:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="lQvJ5A3zwqeErfHbyo2l6AvtztyGTvfPTix0Ud2uVjIEp2KlCP27DmqTq49BmKmGHHD4qH4raRoUxMZMKaMzsA==" saltValue="kZpYHQQx1ua1hZbrX0qi8A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -3106,8 +3164,8 @@
   </sheetPr>
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4342,7 +4400,7 @@
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -4367,31 +4425,31 @@
         <v>8.1</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="F40" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="G40" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="I40" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="J40" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="K40" s="7">
         <f>_xlfn.SWITCH(QUESTIONNAIRE!C39,"",0,"NO",1,"UNSURE",2,"YES",3,0)</f>
@@ -4444,31 +4502,31 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C42" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="F42" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="G42" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="H42" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="I42" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="J42" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="K42" s="7">
         <f>_xlfn.SWITCH(QUESTIONNAIRE!C41,"",0,"NO",1,"UNSURE",2,"YES",3,0)</f>
@@ -4686,7 +4744,7 @@
     </row>
     <row r="55" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="11" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -4737,7 +4795,7 @@
     <row r="57" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="10"/>
       <c r="L57" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M57" s="7">
         <f>K39</f>
